--- a/data/uebungsdatensatz_zve/codebooks/DDFILE_suf_variablen.xlsx
+++ b/data/uebungsdatensatz_zve/codebooks/DDFILE_suf_variablen.xlsx
@@ -1,287 +1,320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Zeitverwendungserhebung\ZVE_2021_22\14_Weitergabe_Daten\Mikrodaten_ZVE_2021_22\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/clara_himmelbauer_wu_ac_at/Documents/Dokumente/teaching/Flinta-R-Tut-Summer25/data/uebungsdatensatz_zve/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FE1B9-8E07-42AF-BF51-D8AA8DD325B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{515FE1B9-8E07-42AF-BF51-D8AA8DD325B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930A4415-AC50-4BAF-84B5-272BE89F5BF5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1860" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="deutsch" sheetId="1" r:id="rId1"/>
+    <sheet name="englisch" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="163">
+  <si>
+    <t>Variablencode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variablenname </t>
+  </si>
+  <si>
+    <t>Ausprägungen</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>HID</t>
+  </si>
+  <si>
+    <t>Eindeutige Haushaltskennung</t>
+  </si>
+  <si>
+    <t>10001-14342</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>Personenkennung</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
   <si>
     <t>TIME_PERIOD</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Ausprägungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variablenname </t>
-  </si>
-  <si>
-    <t>Variablencode</t>
+    <t>HETUS-Welle</t>
+  </si>
+  <si>
+    <t>REF_AREA</t>
+  </si>
+  <si>
+    <t>Land, das Daten erhebt</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>DIARY</t>
+  </si>
+  <si>
+    <t>Tagebuchtag</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Erster Tagebuchetag</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Zweiter Tagebuchtag</t>
+  </si>
+  <si>
+    <t>DDV1</t>
+  </si>
+  <si>
+    <t>Wochentag an dem das Tagebuch ausgefüllt wurde</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>DDV1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Tag ein Wochenende (inkl. Feiertage) oder ein Wochentag (exkl. Feiertage) </t>
+  </si>
+  <si>
+    <t>Wochentag (exkl. Feiertage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochenendtag (inkl. Feiertage) </t>
+  </si>
+  <si>
+    <t>DDV2</t>
+  </si>
+  <si>
+    <t>Tag im Monat an dem Tagebuch ausgefüllt wurde</t>
+  </si>
+  <si>
+    <t>1-31</t>
+  </si>
+  <si>
+    <t>DDV3</t>
+  </si>
+  <si>
+    <t>Monat im Jahr in dem Tagebuch ausgefüllt wurde</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>DDV4</t>
+  </si>
+  <si>
+    <t>Jahr in dem Tagebuch ausgefüllt wurde</t>
+  </si>
+  <si>
+    <t>2021; 2022; 2023</t>
+  </si>
+  <si>
+    <t>DDV5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angenehmste Aktivität des Tages </t>
+  </si>
+  <si>
+    <t>3-stelliger Aktivitätscode</t>
+  </si>
+  <si>
+    <t>-8</t>
   </si>
   <si>
     <t>Weiß nicht</t>
   </si>
   <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>Fehlend</t>
+  </si>
+  <si>
+    <t>DDV5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unangenehmste Aktivität des Tages </t>
+  </si>
+  <si>
+    <t>DDV5C</t>
+  </si>
+  <si>
+    <t>Aktivität, die unter dem größten Zeitdruck ausgeübt wurde</t>
+  </si>
+  <si>
+    <t>DDV5D</t>
+  </si>
+  <si>
+    <t>Wie der Tag insgesamt war</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sehr angenehm - sehr unangenehm </t>
+  </si>
+  <si>
+    <t>DDV5E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War es ein normaler oder ein unüblicher Tag </t>
+  </si>
+  <si>
+    <t>normaler Tag</t>
+  </si>
+  <si>
+    <t>unüblicher Tag</t>
+  </si>
+  <si>
+    <t>DDV6</t>
+  </si>
+  <si>
+    <t>Sind Sie erwerbstätig oder in Ausbildung</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Alter &gt;= 15</t>
+  </si>
+  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>DDV7</t>
+  </si>
+  <si>
+    <t>Art des Tages</t>
+  </si>
+  <si>
+    <t>normaler Arbeitstag</t>
+  </si>
+  <si>
+    <t>DDV6 = 1</t>
+  </si>
+  <si>
+    <t>normaler Schul/Studientag</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>freier Tag</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>Krankenstandstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t>Urlaubstag</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>aus anderen Gründen freier Tag</t>
+  </si>
+  <si>
+    <t>DDV8A</t>
+  </si>
+  <si>
+    <t>Ausflug oder Reise während des Tagebuchtages</t>
+  </si>
+  <si>
+    <t>Ja, Tagesausflug innerhalb Österreichs</t>
+  </si>
+  <si>
+    <t>Ja, Tagesausflug im Ausland</t>
+  </si>
+  <si>
+    <t>Ja, mehrtägige Reise innerhalb Österreichs</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>REF_AREA</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>HID</t>
-  </si>
-  <si>
-    <t>Land, das Daten erhebt</t>
-  </si>
-  <si>
-    <t>HETUS-Welle</t>
-  </si>
-  <si>
-    <t>Eindeutige Haushaltskennung</t>
-  </si>
-  <si>
-    <t>Personenkennung</t>
-  </si>
-  <si>
-    <t>10001-14342</t>
-  </si>
-  <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>DIARY</t>
-  </si>
-  <si>
-    <t>Tagebuchtag</t>
-  </si>
-  <si>
-    <t>Erster Tagebuchetag</t>
-  </si>
-  <si>
-    <t>Zweiter Tagebuchtag</t>
-  </si>
-  <si>
-    <t>DDV1</t>
-  </si>
-  <si>
-    <t>Wochentag an dem das Tagebuch ausgefüllt wurde</t>
-  </si>
-  <si>
-    <t>Sonntag</t>
-  </si>
-  <si>
-    <t>Montag</t>
-  </si>
-  <si>
-    <t>Dienstag</t>
-  </si>
-  <si>
-    <t>Mittwoch</t>
-  </si>
-  <si>
-    <t>Donnerstag</t>
-  </si>
-  <si>
-    <t>Freitag</t>
-  </si>
-  <si>
-    <t>Samstag</t>
-  </si>
-  <si>
-    <t>DDV1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Tag ein Wochenende (inkl. Feiertage) oder ein Wochentag (exkl. Feiertage) </t>
-  </si>
-  <si>
-    <t>Wochentag (exkl. Feiertage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wochenendtag (inkl. Feiertage) </t>
-  </si>
-  <si>
-    <t>DDV2</t>
-  </si>
-  <si>
-    <t>DDV3</t>
-  </si>
-  <si>
-    <t>DDV4</t>
-  </si>
-  <si>
-    <t>Tag im Monat an dem Tagebuch ausgefüllt wurde</t>
-  </si>
-  <si>
-    <t>Monat im Jahr in dem Tagebuch ausgefüllt wurde</t>
-  </si>
-  <si>
-    <t>Jahr in dem Tagebuch ausgefüllt wurde</t>
-  </si>
-  <si>
-    <t>1-31</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>2021; 2022; 2023</t>
-  </si>
-  <si>
-    <t>DDV5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angenehmste Aktivität des Tages </t>
-  </si>
-  <si>
-    <t>3-stelliger Aktivitätscode</t>
-  </si>
-  <si>
-    <t>DDV5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unangenehmste Aktivität des Tages </t>
-  </si>
-  <si>
-    <t>DDV5C</t>
-  </si>
-  <si>
-    <t>Aktivität, die unter dem größten Zeitdruck ausgeübt wurde</t>
-  </si>
-  <si>
-    <t>DDV5D</t>
-  </si>
-  <si>
-    <t>Wie der Tag insgesamt war</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sehr angenehm - sehr unangenehm </t>
-  </si>
-  <si>
-    <t>DDV5E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War es ein normaler oder ein unüblicher Tag </t>
-  </si>
-  <si>
-    <t>normaler Tag</t>
-  </si>
-  <si>
-    <t>unüblicher Tag</t>
+    <t>Ja, mehrtägige Reise im Ausland</t>
   </si>
   <si>
     <t>-7</t>
   </si>
   <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
     <t>Keine Angabe</t>
   </si>
   <si>
-    <t>Fehlend</t>
-  </si>
-  <si>
-    <t>Art des Tages</t>
-  </si>
-  <si>
-    <t>DDV7</t>
-  </si>
-  <si>
-    <t>normaler Arbeitstag</t>
-  </si>
-  <si>
-    <t>normaler Schul/Studientag</t>
-  </si>
-  <si>
-    <t>freier Tag</t>
-  </si>
-  <si>
-    <t>Krankenstandstag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 </t>
-  </si>
-  <si>
-    <t>Urlaubstag</t>
-  </si>
-  <si>
-    <t>aus anderen Gründen freier Tag</t>
-  </si>
-  <si>
-    <t>DDV8A</t>
-  </si>
-  <si>
-    <t>Ausflug oder Reise während des Tagebuchtages</t>
-  </si>
-  <si>
-    <t>Ja, Tagesausflug im Ausland</t>
-  </si>
-  <si>
-    <t>Ja, mehrtägige Reise innerhalb Österreichs</t>
-  </si>
-  <si>
-    <t>Ja, Tagesausflug innerhalb Österreichs</t>
-  </si>
-  <si>
-    <t>Ja, mehrtägige Reise im Ausland</t>
-  </si>
-  <si>
     <t>DDV8B</t>
   </si>
   <si>
@@ -294,6 +327,9 @@
     <t>Kilometer</t>
   </si>
   <si>
+    <t>DDV8A = 2,3,4,5</t>
+  </si>
+  <si>
     <t>WGHT1</t>
   </si>
   <si>
@@ -312,35 +348,191 @@
     <t>Papiertagebuch</t>
   </si>
   <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>DDV6</t>
-  </si>
-  <si>
-    <t>Sind Sie erwerbstätig oder in Ausbildung</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Alter &gt;= 15</t>
-  </si>
-  <si>
-    <t>DDV6 = 1</t>
-  </si>
-  <si>
-    <t>DDV8A = 2,3,4,5</t>
+    <t>Variable code</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Unique household identifier</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>Personal ID</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>HETUS Wave</t>
+  </si>
+  <si>
+    <t>Country that collects data</t>
+  </si>
+  <si>
+    <t>Diary day</t>
+  </si>
+  <si>
+    <t>First day of diary</t>
+  </si>
+  <si>
+    <t>Second day of the diary</t>
+  </si>
+  <si>
+    <t>Day of the week on which the diary was completed</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Is the day a weekend (incl. public holidays) or a weekday (excl. public holidays)</t>
+  </si>
+  <si>
+    <t>Day of the week (excl. public holidays)</t>
+  </si>
+  <si>
+    <t>Weekend day (incl. public holidays)</t>
+  </si>
+  <si>
+    <t>Day of the month on which the diary was completed</t>
+  </si>
+  <si>
+    <t>month in the year in which the diary was filled in</t>
+  </si>
+  <si>
+    <t>year in which the diary was filled</t>
+  </si>
+  <si>
+    <t>Most enjoyable activity of the day</t>
+  </si>
+  <si>
+    <t>3-digit activity code</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Most unpleasant activity of the day</t>
+  </si>
+  <si>
+    <t>Activity performed under the greatest time pressure</t>
+  </si>
+  <si>
+    <t>How the day was overall</t>
+  </si>
+  <si>
+    <t>very pleasant - very unpleasant</t>
+  </si>
+  <si>
+    <t>Was it a normal day or an unusual day</t>
+  </si>
+  <si>
+    <t>normal day</t>
+  </si>
+  <si>
+    <t>unusual day</t>
+  </si>
+  <si>
+    <t>Are you employed or in education</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age &gt;= 15</t>
+  </si>
+  <si>
+    <t>Type of Day</t>
+  </si>
+  <si>
+    <t>normal working day</t>
+  </si>
+  <si>
+    <t>Normal school/study day</t>
+  </si>
+  <si>
+    <t>free day</t>
+  </si>
+  <si>
+    <t>Sick leave day</t>
+  </si>
+  <si>
+    <t>Vacation day</t>
+  </si>
+  <si>
+    <t>day off for other reasons</t>
+  </si>
+  <si>
+    <t>Excursion or trip during Diary Day</t>
+  </si>
+  <si>
+    <t>Yes, day trip within Austria</t>
+  </si>
+  <si>
+    <t>Yes, day trip abroad</t>
+  </si>
+  <si>
+    <t>Yes, multi-day trip within Austria</t>
+  </si>
+  <si>
+    <t>Yes, multi-day trip abroad</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>Distance from home in case of excursion/trip</t>
+  </si>
+  <si>
+    <t>Daily weight</t>
+  </si>
+  <si>
+    <t>Survey mode for time recording</t>
+  </si>
+  <si>
+    <t>Web Application</t>
+  </si>
+  <si>
+    <t>Paper diary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,34 +638,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,7 +679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -797,17 +975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD10A8A-7E0C-411B-B925-AC1CD1713AA7}">
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:G454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="17" customWidth="1"/>
+    <col min="3" max="3" width="39" style="11" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
@@ -818,2318 +996,2317 @@
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18">
-        <v>2020</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="17">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="17">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>7</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23"/>
-      <c r="C23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24"/>
-      <c r="C24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26"/>
-      <c r="C26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27"/>
-      <c r="C27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29"/>
-      <c r="C29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30"/>
-      <c r="C30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32"/>
-      <c r="C32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33"/>
-      <c r="C33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="C35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36" s="17" t="s">
-        <v>66</v>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
         <v>67</v>
       </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39"/>
       <c r="B39"/>
-      <c r="C39" s="17" t="s">
-        <v>8</v>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" s="17" t="s">
-        <v>98</v>
+      <c r="C40" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>7</v>
+      <c r="C41" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="C42" s="17" t="s">
-        <v>8</v>
+      <c r="C42" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43" s="17" t="s">
-        <v>9</v>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44"/>
       <c r="B44"/>
-      <c r="C44" s="17" t="s">
-        <v>10</v>
+      <c r="C44" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45"/>
       <c r="B45"/>
-      <c r="C45" s="17" t="s">
-        <v>76</v>
+      <c r="C45" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46"/>
       <c r="B46"/>
-      <c r="C46" s="17" t="s">
-        <v>12</v>
+      <c r="C46" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47"/>
       <c r="B47"/>
-      <c r="C47" s="17" t="s">
-        <v>98</v>
+      <c r="C47" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="C48" s="17" t="s">
-        <v>66</v>
+      <c r="C48" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49"/>
       <c r="B49"/>
-      <c r="C49" s="17" t="s">
-        <v>67</v>
+      <c r="C49" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="C51" s="17" t="s">
-        <v>8</v>
+      <c r="C51" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52"/>
       <c r="B52"/>
-      <c r="C52" s="17" t="s">
-        <v>9</v>
+      <c r="C52" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53"/>
       <c r="B53"/>
-      <c r="C53" s="17" t="s">
-        <v>10</v>
+      <c r="C53" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="C54" s="17" t="s">
-        <v>11</v>
+      <c r="C54" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55"/>
       <c r="B55"/>
-      <c r="C55" s="17" t="s">
-        <v>65</v>
+      <c r="C55" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56"/>
       <c r="B56"/>
-      <c r="C56" s="17" t="s">
-        <v>66</v>
+      <c r="C56" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57"/>
       <c r="B57"/>
-      <c r="C57" s="17" t="s">
-        <v>67</v>
+      <c r="C57" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59"/>
       <c r="B59"/>
-      <c r="C59" s="17" t="s">
-        <v>98</v>
+      <c r="C59" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60"/>
       <c r="B60"/>
-      <c r="C60" s="17" t="s">
-        <v>67</v>
+      <c r="C60" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="18"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63"/>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64"/>
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:2">
+      <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97"/>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+    <row r="110" spans="1:2">
+      <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115"/>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117"/>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+    <row r="125" spans="1:2">
+      <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+    <row r="126" spans="1:2">
+      <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
+    <row r="127" spans="1:2">
+      <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+    <row r="128" spans="1:2">
+      <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129"/>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131"/>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133"/>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135"/>
       <c r="B135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137"/>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139"/>
       <c r="B139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141"/>
       <c r="B141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143"/>
       <c r="B143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145"/>
       <c r="B145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147"/>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149"/>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151"/>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153"/>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155"/>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157"/>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159"/>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161"/>
       <c r="B161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163"/>
       <c r="B163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165"/>
       <c r="B165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167"/>
       <c r="B167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169"/>
       <c r="B169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171"/>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173"/>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175"/>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
+    <row r="177" spans="1:2">
+      <c r="A177" s="6"/>
       <c r="B177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
+    <row r="178" spans="1:2">
+      <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
+    <row r="179" spans="1:2">
+      <c r="A179"/>
       <c r="B179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
+    <row r="180" spans="1:2">
+      <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
+    <row r="181" spans="1:2">
+      <c r="A181"/>
       <c r="B181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+    <row r="182" spans="1:2">
+      <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+    <row r="183" spans="1:2">
+      <c r="A183"/>
       <c r="B183"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
+    <row r="185" spans="1:2">
+      <c r="A185"/>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+    <row r="186" spans="1:2">
+      <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
+    <row r="187" spans="1:2">
+      <c r="A187"/>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+    <row r="188" spans="1:2">
+      <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
+    <row r="189" spans="1:2">
+      <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
+    <row r="190" spans="1:2">
+      <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
+    <row r="191" spans="1:2">
+      <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
+    <row r="192" spans="1:2">
+      <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
+    <row r="193" spans="1:2">
+      <c r="A193"/>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+    <row r="194" spans="1:2">
+      <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
+    <row r="195" spans="1:2">
+      <c r="A195"/>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+    <row r="196" spans="1:2">
+      <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
+    <row r="197" spans="1:2">
+      <c r="A197"/>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+    <row r="198" spans="1:2">
+      <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
+    <row r="199" spans="1:2">
+      <c r="A199"/>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+    <row r="200" spans="1:2">
+      <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
+    <row r="201" spans="1:2">
+      <c r="A201"/>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+    <row r="202" spans="1:2">
+      <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
+    <row r="203" spans="1:2">
+      <c r="A203"/>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+    <row r="204" spans="1:2">
+      <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
+    <row r="205" spans="1:2">
+      <c r="A205"/>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+    <row r="206" spans="1:2">
+      <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+    <row r="207" spans="1:2">
+      <c r="A207"/>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
+    <row r="208" spans="1:2">
+      <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
+    <row r="209" spans="1:2">
+      <c r="A209"/>
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
+    <row r="210" spans="1:2">
+      <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
+    <row r="211" spans="1:2">
+      <c r="A211"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
+    <row r="212" spans="1:2">
+      <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
+    <row r="213" spans="1:2">
+      <c r="A213"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+    <row r="214" spans="1:2">
+      <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+    <row r="215" spans="1:2">
+      <c r="A215"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+    <row r="216" spans="1:2">
+      <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+    <row r="217" spans="1:2">
+      <c r="A217"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+    <row r="218" spans="1:2">
+      <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+    <row r="219" spans="1:2">
+      <c r="A219"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+    <row r="220" spans="1:2">
+      <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="9"/>
+    <row r="221" spans="1:2">
+      <c r="A221"/>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+    <row r="222" spans="1:2">
+      <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+    <row r="223" spans="1:2">
+      <c r="A223"/>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
+    <row r="224" spans="1:2">
+      <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
+    <row r="225" spans="1:2">
+      <c r="A225"/>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+    <row r="226" spans="1:2">
+      <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
+    <row r="227" spans="1:2">
+      <c r="A227"/>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+    <row r="228" spans="1:2">
+      <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="9"/>
+    <row r="229" spans="1:2">
+      <c r="A229"/>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="9"/>
+    <row r="230" spans="1:2">
+      <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="9"/>
+    <row r="231" spans="1:2">
+      <c r="A231"/>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
+    <row r="232" spans="1:2">
+      <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
+    <row r="233" spans="1:2">
+      <c r="A233"/>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
+    <row r="234" spans="1:2">
+      <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+    <row r="235" spans="1:2">
+      <c r="A235"/>
       <c r="B235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+    <row r="236" spans="1:2">
+      <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="9"/>
+    <row r="237" spans="1:2">
+      <c r="A237"/>
       <c r="B237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
+    <row r="238" spans="1:2">
+      <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
+    <row r="239" spans="1:2">
+      <c r="A239"/>
       <c r="B239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
+    <row r="240" spans="1:2">
+      <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="9"/>
+    <row r="241" spans="1:2">
+      <c r="A241"/>
       <c r="B241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
+    <row r="242" spans="1:2">
+      <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
+    <row r="243" spans="1:2">
+      <c r="A243"/>
       <c r="B243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
+    <row r="244" spans="1:2">
+      <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="9"/>
+    <row r="245" spans="1:2">
+      <c r="A245"/>
       <c r="B245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+    <row r="246" spans="1:2">
+      <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
+    <row r="247" spans="1:2">
+      <c r="A247"/>
       <c r="B247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+    <row r="248" spans="1:2">
+      <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
+    <row r="249" spans="1:2">
+      <c r="A249"/>
       <c r="B249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
+    <row r="250" spans="1:2">
+      <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
+    <row r="251" spans="1:2">
+      <c r="A251"/>
       <c r="B251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
+    <row r="252" spans="1:2">
+      <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253"/>
       <c r="B253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+    <row r="255" spans="1:2">
+      <c r="A255"/>
       <c r="B255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
+    <row r="256" spans="1:2">
+      <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
+    <row r="257" spans="1:2">
+      <c r="A257"/>
       <c r="B257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+    <row r="258" spans="1:2">
+      <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+    <row r="259" spans="1:2">
+      <c r="A259"/>
       <c r="B259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+    <row r="260" spans="1:2">
+      <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
+    <row r="261" spans="1:2">
+      <c r="A261"/>
       <c r="B261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
+    <row r="262" spans="1:2">
+      <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
+    <row r="263" spans="1:2">
+      <c r="A263"/>
       <c r="B263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
+    <row r="264" spans="1:2">
+      <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
+    <row r="265" spans="1:2">
+      <c r="A265"/>
       <c r="B265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+    <row r="266" spans="1:2">
+      <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+    <row r="267" spans="1:2">
+      <c r="A267"/>
       <c r="B267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+    <row r="268" spans="1:2">
+      <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+    <row r="269" spans="1:2">
+      <c r="A269"/>
       <c r="B269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
+    <row r="270" spans="1:2">
+      <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
+    <row r="271" spans="1:2">
+      <c r="A271"/>
       <c r="B271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
+    <row r="272" spans="1:2">
+      <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
+    <row r="273" spans="1:3">
+      <c r="A273"/>
       <c r="B273"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275"/>
       <c r="B275"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
+    <row r="276" spans="1:3">
+      <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+    <row r="277" spans="1:3">
+      <c r="A277"/>
       <c r="B277"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+    <row r="278" spans="1:3">
+      <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
+    <row r="279" spans="1:3">
+      <c r="A279"/>
       <c r="B279"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+    <row r="280" spans="1:3">
+      <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
+    <row r="281" spans="1:3">
+      <c r="A281"/>
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
+    <row r="282" spans="1:3">
+      <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
+    <row r="283" spans="1:3">
+      <c r="A283"/>
       <c r="B283"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
+    <row r="284" spans="1:3">
+      <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C285" s="20"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
+    <row r="285" spans="1:3" s="9" customFormat="1">
+      <c r="C285" s="13"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
+    <row r="287" spans="1:3">
+      <c r="A287"/>
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+    <row r="288" spans="1:3">
+      <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
+    <row r="289" spans="1:2">
+      <c r="A289"/>
       <c r="B289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
+    <row r="290" spans="1:2">
+      <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
+    <row r="291" spans="1:2">
+      <c r="A291"/>
       <c r="B291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
+    <row r="292" spans="1:2">
+      <c r="A292" s="8"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293"/>
       <c r="B293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295"/>
       <c r="B295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297"/>
       <c r="B297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299"/>
       <c r="B299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2">
       <c r="A301"/>
       <c r="B301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2">
       <c r="A303"/>
       <c r="B303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305"/>
       <c r="B305"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306"/>
       <c r="B306"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307"/>
       <c r="B307"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308"/>
       <c r="B308"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309"/>
       <c r="B309"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2">
       <c r="A310"/>
       <c r="B310"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311"/>
       <c r="B311"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312"/>
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313"/>
       <c r="B313"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314"/>
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315"/>
       <c r="B315"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2">
       <c r="A316"/>
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2">
       <c r="A317"/>
       <c r="B317"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318"/>
       <c r="B318"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319"/>
       <c r="B319"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320"/>
       <c r="B320"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2">
       <c r="A321"/>
       <c r="B321"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2">
       <c r="A322"/>
       <c r="B322"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2">
       <c r="A323"/>
       <c r="B323"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2">
       <c r="A324"/>
       <c r="B324"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2">
       <c r="A325"/>
       <c r="B325"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2">
       <c r="A326"/>
       <c r="B326"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2">
       <c r="A327"/>
       <c r="B327"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2">
       <c r="A328"/>
       <c r="B328"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2">
       <c r="A329"/>
       <c r="B329"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2">
       <c r="A330"/>
       <c r="B330"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2">
       <c r="A331"/>
       <c r="B331"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2">
       <c r="A332"/>
       <c r="B332"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2">
       <c r="A333"/>
       <c r="B333"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2">
       <c r="A334"/>
       <c r="B334"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2">
       <c r="A335"/>
       <c r="B335"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2">
       <c r="A336"/>
       <c r="B336"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2">
       <c r="A337"/>
       <c r="B337"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2">
       <c r="A338"/>
       <c r="B338"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2">
       <c r="A339"/>
       <c r="B339"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2">
       <c r="A340"/>
       <c r="B340"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2">
       <c r="A341"/>
       <c r="B341"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2">
       <c r="A342"/>
       <c r="B342"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2">
       <c r="A343"/>
       <c r="B343"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2">
       <c r="A344"/>
       <c r="B344"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2">
       <c r="A345"/>
       <c r="B345"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2">
       <c r="A346"/>
       <c r="B346"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2">
       <c r="A347"/>
       <c r="B347"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2">
       <c r="A348"/>
       <c r="B348"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2">
       <c r="A349"/>
       <c r="B349"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2">
       <c r="A350"/>
       <c r="B350"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2">
       <c r="A351"/>
       <c r="B351"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2">
       <c r="A352"/>
       <c r="B352"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2">
       <c r="A353"/>
       <c r="B353"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2">
       <c r="A354"/>
       <c r="B354"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2">
       <c r="A355"/>
       <c r="B355"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2">
       <c r="A356"/>
       <c r="B356"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2">
       <c r="A357"/>
       <c r="B357"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2">
       <c r="A358"/>
       <c r="B358"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2">
       <c r="A359"/>
       <c r="B359"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2">
       <c r="A360"/>
       <c r="B360"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2">
       <c r="A361"/>
       <c r="B361"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2">
       <c r="A362"/>
       <c r="B362"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2">
       <c r="A363"/>
       <c r="B363"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2">
       <c r="A364"/>
       <c r="B364"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2">
       <c r="A365"/>
       <c r="B365"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2">
       <c r="A366"/>
       <c r="B366"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2">
       <c r="A367"/>
       <c r="B367"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2">
       <c r="A368"/>
       <c r="B368"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2">
       <c r="A369"/>
       <c r="B369"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2">
       <c r="A370"/>
       <c r="B370"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2">
       <c r="A371"/>
       <c r="B371"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2">
       <c r="A372"/>
       <c r="B372"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2">
       <c r="A373"/>
       <c r="B373"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2">
       <c r="A374"/>
       <c r="B374"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2">
       <c r="A375"/>
       <c r="B375"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2">
       <c r="A376"/>
       <c r="B376"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2">
       <c r="A377"/>
       <c r="B377"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2">
       <c r="A378"/>
       <c r="B378"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2">
       <c r="A379"/>
       <c r="B379"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2">
       <c r="A380"/>
       <c r="B380"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2">
       <c r="A381"/>
       <c r="B381"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2">
       <c r="A382"/>
       <c r="B382"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2">
       <c r="A383"/>
       <c r="B383"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2">
       <c r="A384"/>
       <c r="B384"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2">
       <c r="A385"/>
       <c r="B385"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2">
       <c r="A386"/>
       <c r="B386"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2">
       <c r="A387"/>
       <c r="B387"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2">
       <c r="A388"/>
       <c r="B388"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2">
       <c r="A389"/>
       <c r="B389"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2">
       <c r="A390"/>
       <c r="B390"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2">
       <c r="A391"/>
       <c r="B391"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2">
       <c r="A392"/>
       <c r="B392"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2">
       <c r="A393"/>
       <c r="B393"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2">
       <c r="A394"/>
       <c r="B394"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2">
       <c r="A395"/>
       <c r="B395"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2">
       <c r="A396"/>
       <c r="B396"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2">
       <c r="A397"/>
       <c r="B397"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2">
       <c r="A398"/>
       <c r="B398"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2">
       <c r="A399"/>
       <c r="B399"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2">
       <c r="A400"/>
       <c r="B400"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2">
       <c r="A401"/>
       <c r="B401"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2">
       <c r="A402"/>
       <c r="B402"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2">
       <c r="A403"/>
       <c r="B403"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2">
       <c r="A404"/>
       <c r="B404"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2">
       <c r="A405"/>
       <c r="B405"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2">
       <c r="A406"/>
       <c r="B406"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2">
       <c r="A407"/>
       <c r="B407"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2">
       <c r="A408"/>
       <c r="B408"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2">
       <c r="A409"/>
       <c r="B409"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2">
       <c r="A410"/>
       <c r="B410"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2">
       <c r="A411"/>
       <c r="B411"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2">
       <c r="A412"/>
       <c r="B412"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2">
       <c r="A413"/>
       <c r="B413"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2">
       <c r="A414"/>
       <c r="B414"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2">
       <c r="A415"/>
       <c r="B415"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2">
       <c r="A416"/>
       <c r="B416"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2">
       <c r="A417"/>
       <c r="B417"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2">
       <c r="A418"/>
       <c r="B418"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2">
       <c r="A419"/>
       <c r="B419"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2">
       <c r="A420"/>
       <c r="B420"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2">
       <c r="A421"/>
       <c r="B421"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2">
       <c r="A422"/>
       <c r="B422"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2">
       <c r="A423"/>
       <c r="B423"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2">
       <c r="A424"/>
       <c r="B424"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2">
       <c r="A425"/>
       <c r="B425"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2">
       <c r="A426"/>
       <c r="B426"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2">
       <c r="A427"/>
       <c r="B427"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2">
       <c r="A428"/>
       <c r="B428"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2">
       <c r="A429"/>
       <c r="B429"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2">
       <c r="A430"/>
       <c r="B430"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2">
       <c r="A431"/>
       <c r="B431"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2">
       <c r="A432"/>
       <c r="B432"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2">
       <c r="A433"/>
       <c r="B433"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2">
       <c r="A434"/>
       <c r="B434"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2">
       <c r="A435"/>
       <c r="B435"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2">
       <c r="A436"/>
       <c r="B436"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2">
       <c r="A437"/>
       <c r="B437"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2">
       <c r="A438"/>
       <c r="B438"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2">
       <c r="A439"/>
       <c r="B439"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2">
       <c r="A440"/>
       <c r="B440"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2">
       <c r="A441"/>
       <c r="B441"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2">
       <c r="A442"/>
       <c r="B442"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2">
       <c r="A443"/>
       <c r="B443"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2">
       <c r="A444"/>
       <c r="B444"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2">
       <c r="A445"/>
       <c r="B445"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2">
       <c r="A446"/>
       <c r="B446"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2">
       <c r="A447"/>
       <c r="B447"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2">
       <c r="A448"/>
       <c r="B448"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2">
       <c r="A449"/>
       <c r="B449"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2">
       <c r="A450"/>
       <c r="B450"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2">
       <c r="A451"/>
       <c r="B451"/>
     </row>
-    <row r="452" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="36" customHeight="1">
       <c r="A452"/>
       <c r="B452"/>
     </row>
-    <row r="453" spans="1:2" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="53.45" customHeight="1">
       <c r="A453"/>
       <c r="B453"/>
     </row>
-    <row r="454" spans="1:2" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="95.45" customHeight="1">
       <c r="A454"/>
       <c r="B454"/>
     </row>
@@ -3137,4 +3314,2259 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED0CB3-1A0F-45C0-BAB8-7DA0D4AF0E5E}">
+  <dimension ref="A1:F112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="11">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>106</v>
+      </c>
+      <c r="F76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106" t="s">
+        <v>106</v>
+      </c>
+      <c r="F106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/uebungsdatensatz_zve/codebooks/DDFILE_suf_variablen.xlsx
+++ b/data/uebungsdatensatz_zve/codebooks/DDFILE_suf_variablen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/clara_himmelbauer_wu_ac_at/Documents/Dokumente/teaching/Flinta-R-Tut-Summer25/data/uebungsdatensatz_zve/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{515FE1B9-8E07-42AF-BF51-D8AA8DD325B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930A4415-AC50-4BAF-84B5-272BE89F5BF5}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{515FE1B9-8E07-42AF-BF51-D8AA8DD325B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7773082-92DA-4C52-A813-79CE8E5F86B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10008" activeTab="1" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="deutsch" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="163">
   <si>
     <t>Variablencode</t>
   </si>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,10 +678,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -825,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -967,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -977,26 +981,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD10A8A-7E0C-411B-B925-AC1CD1713AA7}">
   <dimension ref="A1:G454"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C63"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="11" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="50.88671875" customWidth="1"/>
+    <col min="9" max="9" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1064,15 +1068,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1095,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="12" t="s">
@@ -1104,7 +1108,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1127,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="11">
@@ -1133,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="11">
@@ -1143,7 +1147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="11">
@@ -1153,7 +1157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="11">
@@ -1163,7 +1167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="11">
@@ -1173,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="11">
@@ -1183,7 +1187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="11" t="s">
@@ -1213,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="11" t="s">
@@ -1283,7 +1287,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="11" t="s">
@@ -1294,7 +1298,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="11" t="s">
@@ -1322,7 +1326,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="11" t="s">
@@ -1333,7 +1337,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="11" t="s">
@@ -1361,7 +1365,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="11" t="s">
@@ -1372,7 +1376,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="11" t="s">
@@ -1400,7 +1404,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="11" t="s">
@@ -1411,7 +1415,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="11" t="s">
@@ -1435,7 +1439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="11" t="s">
@@ -1445,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="11" t="s">
@@ -1455,7 +1459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="11" t="s">
@@ -1482,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="11" t="s">
@@ -1492,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" s="11" t="s">
@@ -1519,7 +1523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="11" t="s">
@@ -1529,7 +1533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" s="11" t="s">
@@ -1539,7 +1543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" s="11" t="s">
@@ -1549,7 +1553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" s="11" t="s">
@@ -1559,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" s="11" t="s">
@@ -1569,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="11" t="s">
@@ -1579,7 +1583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" s="11" t="s">
@@ -1589,7 +1593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" s="11" t="s">
@@ -1616,7 +1620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="11" t="s">
@@ -1626,7 +1630,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="11" t="s">
@@ -1636,7 +1640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="11" t="s">
@@ -1646,7 +1650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55" s="11" t="s">
@@ -1656,7 +1660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" s="11" t="s">
@@ -1666,7 +1670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" s="11" t="s">
@@ -1676,7 +1680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" s="11" t="s">
@@ -1703,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" s="11" t="s">
@@ -1713,7 +1717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="C63" s="14" t="s">
         <v>21</v>
@@ -1747,1566 +1751,1566 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141"/>
       <c r="B141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143"/>
       <c r="B143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145"/>
       <c r="B145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155"/>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157"/>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161"/>
       <c r="B161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167"/>
       <c r="B167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169"/>
       <c r="B169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171"/>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173"/>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175"/>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179"/>
       <c r="B179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181"/>
       <c r="B181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183"/>
       <c r="B183"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185"/>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187"/>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193"/>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195"/>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197"/>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199"/>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201"/>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229"/>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231"/>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233"/>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237"/>
       <c r="B237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239"/>
       <c r="B239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241"/>
       <c r="B241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243"/>
       <c r="B243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245"/>
       <c r="B245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247"/>
       <c r="B247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249"/>
       <c r="B249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251"/>
       <c r="B251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253"/>
       <c r="B253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255"/>
       <c r="B255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257"/>
       <c r="B257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259"/>
       <c r="B259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261"/>
       <c r="B261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263"/>
       <c r="B263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265"/>
       <c r="B265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267"/>
       <c r="B267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269"/>
       <c r="B269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271"/>
       <c r="B271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273"/>
       <c r="B273"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275"/>
       <c r="B275"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277"/>
       <c r="B277"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279"/>
       <c r="B279"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281"/>
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283"/>
       <c r="B283"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:3" s="9" customFormat="1">
+    <row r="285" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C285" s="13"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287"/>
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289"/>
       <c r="B289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291"/>
       <c r="B291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293"/>
       <c r="B293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295"/>
       <c r="B295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297"/>
       <c r="B297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299"/>
       <c r="B299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301"/>
       <c r="B301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303"/>
       <c r="B303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305"/>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306"/>
       <c r="B306"/>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307"/>
       <c r="B307"/>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308"/>
       <c r="B308"/>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309"/>
       <c r="B309"/>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310"/>
       <c r="B310"/>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311"/>
       <c r="B311"/>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312"/>
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313"/>
       <c r="B313"/>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314"/>
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315"/>
       <c r="B315"/>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316"/>
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317"/>
       <c r="B317"/>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318"/>
       <c r="B318"/>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319"/>
       <c r="B319"/>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320"/>
       <c r="B320"/>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321"/>
       <c r="B321"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322"/>
       <c r="B322"/>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323"/>
       <c r="B323"/>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324"/>
       <c r="B324"/>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325"/>
       <c r="B325"/>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326"/>
       <c r="B326"/>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327"/>
       <c r="B327"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328"/>
       <c r="B328"/>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329"/>
       <c r="B329"/>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330"/>
       <c r="B330"/>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331"/>
       <c r="B331"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332"/>
       <c r="B332"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333"/>
       <c r="B333"/>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334"/>
       <c r="B334"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335"/>
       <c r="B335"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336"/>
       <c r="B336"/>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337"/>
       <c r="B337"/>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338"/>
       <c r="B338"/>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339"/>
       <c r="B339"/>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340"/>
       <c r="B340"/>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341"/>
       <c r="B341"/>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342"/>
       <c r="B342"/>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343"/>
       <c r="B343"/>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344"/>
       <c r="B344"/>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345"/>
       <c r="B345"/>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346"/>
       <c r="B346"/>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347"/>
       <c r="B347"/>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348"/>
       <c r="B348"/>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349"/>
       <c r="B349"/>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350"/>
       <c r="B350"/>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351"/>
       <c r="B351"/>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352"/>
       <c r="B352"/>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353"/>
       <c r="B353"/>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354"/>
       <c r="B354"/>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355"/>
       <c r="B355"/>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356"/>
       <c r="B356"/>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357"/>
       <c r="B357"/>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358"/>
       <c r="B358"/>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359"/>
       <c r="B359"/>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360"/>
       <c r="B360"/>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361"/>
       <c r="B361"/>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362"/>
       <c r="B362"/>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363"/>
       <c r="B363"/>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364"/>
       <c r="B364"/>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365"/>
       <c r="B365"/>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366"/>
       <c r="B366"/>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367"/>
       <c r="B367"/>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368"/>
       <c r="B368"/>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369"/>
       <c r="B369"/>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370"/>
       <c r="B370"/>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371"/>
       <c r="B371"/>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372"/>
       <c r="B372"/>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373"/>
       <c r="B373"/>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374"/>
       <c r="B374"/>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375"/>
       <c r="B375"/>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376"/>
       <c r="B376"/>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377"/>
       <c r="B377"/>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378"/>
       <c r="B378"/>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379"/>
       <c r="B379"/>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380"/>
       <c r="B380"/>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381"/>
       <c r="B381"/>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382"/>
       <c r="B382"/>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383"/>
       <c r="B383"/>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397"/>
       <c r="B397"/>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398"/>
       <c r="B398"/>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399"/>
       <c r="B399"/>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400"/>
       <c r="B400"/>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401"/>
       <c r="B401"/>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402"/>
       <c r="B402"/>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403"/>
       <c r="B403"/>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404"/>
       <c r="B404"/>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405"/>
       <c r="B405"/>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406"/>
       <c r="B406"/>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407"/>
       <c r="B407"/>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408"/>
       <c r="B408"/>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409"/>
       <c r="B409"/>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410"/>
       <c r="B410"/>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411"/>
       <c r="B411"/>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412"/>
       <c r="B412"/>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413"/>
       <c r="B413"/>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414"/>
       <c r="B414"/>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
     </row>
-    <row r="452" spans="1:2" ht="36" customHeight="1">
+    <row r="452" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
     </row>
-    <row r="453" spans="1:2" ht="53.45" customHeight="1">
+    <row r="453" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
     </row>
-    <row r="454" spans="1:2" ht="95.45" customHeight="1">
+    <row r="454" spans="1:2" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
     </row>
@@ -3320,17 +3324,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED0CB3-1A0F-45C0-BAB8-7DA0D4AF0E5E}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F112"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3370,7 +3374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -3502,11 +3506,8 @@
       <c r="E9" t="s">
         <v>106</v>
       </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>106</v>
       </c>
